--- a/usuariosinfracoes.xlsx
+++ b/usuariosinfracoes.xlsx
@@ -145,7 +145,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -162,9 +162,6 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
